--- a/basic/ch06_조건부처리/file.xlsx
+++ b/basic/ch06_조건부처리/file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Code for Running Course\Excel with Python\Chapter 06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog_Src\(udemy)Study+Materials+for+Excel+with+Python\Study Materials for Excel with Python\Source Code\Excel with Python\Chapter 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,35 +30,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCAA"/>
-        <bgColor rgb="FF123456"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,14 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -96,7 +94,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,152 +383,154 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>23</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>34</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>55</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>43</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>33</v>
       </c>
-      <c r="B8" s="3">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
         <v>343</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>